--- a/va_facility_data_2025-02-20/Cheyenne VA Medical Center - Facility Data.xlsx"; filename*=UTF-8''Cheyenne%20VA%20Medical%20Center%20-%20Facility%20Data.xlsx
+++ b/va_facility_data_2025-02-20/Cheyenne VA Medical Center - Facility Data.xlsx"; filename*=UTF-8''Cheyenne%20VA%20Medical%20Center%20-%20Facility%20Data.xlsx
@@ -2,12 +2,12 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <x:workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheets>
-    <x:sheet name="Effective Care" sheetId="1" r:id="R73f0cb442f06431f91a5e2422d1e4e73"/>
-    <x:sheet name="Safe Care" sheetId="2" r:id="R69cd74aa374b4f618d668b92e0f65963"/>
-    <x:sheet name="Veteran-Centered Care" sheetId="3" r:id="Rc11042a13f7445f8808c3f8d221d3c8d"/>
-    <x:sheet name="Wait Times" sheetId="4" r:id="Rc50cfa250b324d65b5ea4df25cf679b3"/>
-    <x:sheet name="Satisfaction with Care" sheetId="5" r:id="Ra82b1375d2014cd3827a846a55e658d5"/>
-    <x:sheet name="Outpatient Score" sheetId="6" r:id="R3ea6dd262a174bca9dac4430ef772a75"/>
+    <x:sheet name="Effective Care" sheetId="1" r:id="R1c6dcaeb81dc4553942b1e6dd92151a3"/>
+    <x:sheet name="Safe Care" sheetId="2" r:id="R3b256a87b0fe40b8afa3fd56eb13a43e"/>
+    <x:sheet name="Veteran-Centered Care" sheetId="3" r:id="R0cd231176bdb446b872543dd62e3f342"/>
+    <x:sheet name="Wait Times" sheetId="4" r:id="R2889cafd535a4896be01b470a5c5a71a"/>
+    <x:sheet name="Satisfaction with Care" sheetId="5" r:id="R2e0bf4a605904155ba6c1c8fc9288ad3"/>
+    <x:sheet name="Outpatient Score" sheetId="6" r:id="Rc61729cc85f74064b9c60416b5c8e19a"/>
   </x:sheets>
 </x:workbook>
 </file>
